--- a/public/templates/ExportTemplate.xlsx
+++ b/public/templates/ExportTemplate.xlsx
@@ -7,17 +7,15 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="mẩu (1)" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'mẩu (1)'!$B$1:$S$18</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>CÔNG TY CỔ PHẦN THÁI BÌNH DƯƠNG XANH</t>
   </si>
@@ -32,25 +30,34 @@
     <t xml:space="preserve">  (DELIVERY NOTE)</t>
   </si>
   <si>
-    <t>TÊN KHÁCH HÀNG: CÔNG TY TRÁCH NHIỆM HỮU HẠN CÔNG NGHIỆP SIGMA VIỆT NAM</t>
-  </si>
-  <si>
-    <t>03/07/2024 15:14:57</t>
-  </si>
-  <si>
-    <t>GIAO HÀNG TẠI KHO:  C8</t>
+    <t>TÊN KHÁCH HÀNG: .</t>
+  </si>
+  <si>
+    <t>24/06/2025 10:44:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIAO HÀNG TẠI KHO:  </t>
   </si>
   <si>
     <t>XUẤT TẠI KHO : CTY CP THÁI BÌNH DƯƠNG XANH</t>
   </si>
   <si>
-    <t>SỐ PXK: 15/05/24-7</t>
-  </si>
-  <si>
-    <t>SỐ XE: 62C-056.60</t>
-  </si>
-  <si>
-    <t>STT</t>
+    <t>SỐ PXK: 10/06/25-41</t>
+  </si>
+  <si>
+    <t>SỐ XE: 62C-011.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STT </t>
+  </si>
+  <si>
+    <t>NGAY DH</t>
+  </si>
+  <si>
+    <t>KHACH HANG</t>
+  </si>
+  <si>
+    <t>MÃ KHÁCH HÀNG</t>
   </si>
   <si>
     <t>MDH</t>
@@ -71,7 +78,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>KÍCH THƯỚC</t>
+    <t>KÍCH THƯỚC ĐH</t>
+  </si>
+  <si>
+    <t>ĐVT</t>
   </si>
   <si>
     <t>SL</t>
@@ -80,6 +90,9 @@
     <t>SLG</t>
   </si>
   <si>
+    <t>SLT</t>
+  </si>
+  <si>
     <t>TMO</t>
   </si>
   <si>
@@ -104,12 +117,39 @@
     <t>SIZE</t>
   </si>
   <si>
-    <t>GHI CHU</t>
+    <t>GIÁ THÀNH</t>
+  </si>
+  <si>
+    <t>THÀNH TIỀN</t>
+  </si>
+  <si>
+    <t>ĐỢT</t>
+  </si>
+  <si>
+    <t>NƠI GIAO</t>
+  </si>
+  <si>
+    <t>GHI CHU CỦA KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>NGÀY GIAO TRÊN ĐH</t>
+  </si>
+  <si>
+    <t>GHI CHÚ CỦA TBDX</t>
   </si>
   <si>
     <t>[stt]</t>
   </si>
   <si>
+    <t>[ngay_dat_hang]</t>
+  </si>
+  <si>
+    <t>[short_name]</t>
+  </si>
+  <si>
+    <t>[customer_id]</t>
+  </si>
+  <si>
     <t>[mdh]</t>
   </si>
   <si>
@@ -131,12 +171,18 @@
     <t>[kich_thuoc]</t>
   </si>
   <si>
+    <t>[unit]</t>
+  </si>
+  <si>
     <t>[sl]</t>
   </si>
   <si>
     <t>[slg]</t>
   </si>
   <si>
+    <t>[slt]</t>
+  </si>
+  <si>
     <t>[tmo]</t>
   </si>
   <si>
@@ -161,7 +207,25 @@
     <t>[size]</t>
   </si>
   <si>
+    <t>[price]</t>
+  </si>
+  <si>
+    <t>[into_money]</t>
+  </si>
+  <si>
+    <t>[dot]</t>
+  </si>
+  <si>
+    <t>[xuong_giao]</t>
+  </si>
+  <si>
     <t>[note_1]</t>
+  </si>
+  <si>
+    <t>[han_giao]</t>
+  </si>
+  <si>
+    <t>[note_2]</t>
   </si>
   <si>
     <r>
@@ -255,8 +319,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -264,11 +330,101 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -290,7 +446,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -299,7 +455,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -309,116 +465,9 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri Light"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,12 +479,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -466,6 +515,43 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -487,43 +573,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,168 +606,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="9" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="164" fillId="0" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="3" fillId="0" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="1" fillId="0" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="15" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="15" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="3" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="1" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="49" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="22" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="16" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="17" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,7 +834,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -793,7 +846,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -840,23 +893,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -892,23 +928,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1086,124 +1105,139 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="55" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="64" zoomScaleNormal="64" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="N15" sqref="N15:AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.125" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="18" customWidth="true" style="2"/>
-    <col min="3" max="3" width="15.375" customWidth="true" style="1"/>
-    <col min="4" max="4" width="15.375" customWidth="true" style="7"/>
-    <col min="5" max="5" width="15.375" customWidth="true" style="7"/>
-    <col min="6" max="6" width="15.375" customWidth="true" style="7"/>
-    <col min="7" max="7" width="15.375" customWidth="true" style="7"/>
-    <col min="8" max="8" width="17.875" customWidth="true" style="7"/>
-    <col min="9" max="9" width="15.375" customWidth="true" style="6"/>
-    <col min="10" max="10" width="15.375" customWidth="true" style="6"/>
-    <col min="11" max="11" width="15.375" customWidth="true" style="6"/>
-    <col min="12" max="12" width="15.375" customWidth="true" style="5"/>
-    <col min="13" max="13" width="15.375" customWidth="true" style="4"/>
-    <col min="14" max="14" width="22.125" customWidth="true" style="4"/>
-    <col min="15" max="15" width="15.375" customWidth="true" style="3"/>
-    <col min="16" max="16" width="15.375" customWidth="true" style="3"/>
-    <col min="17" max="17" width="15.375" customWidth="true" style="3"/>
-    <col min="18" max="18" width="15.375" customWidth="true" style="3"/>
-    <col min="19" max="19" width="16.25" customWidth="true" style="1"/>
-    <col min="20" max="20" width="9.125" style="1"/>
+    <col min="1" max="1" width="8" customWidth="true" style="21"/>
+    <col min="2" max="2" width="21.28515625" customWidth="true" style="22"/>
+    <col min="3" max="3" width="18.28515625" customWidth="true" style="21"/>
+    <col min="4" max="4" width="17.5703125" customWidth="true" style="23"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true" style="23"/>
+    <col min="6" max="6" width="12.42578125" customWidth="true" style="23"/>
+    <col min="7" max="7" width="10.28515625" customWidth="true" style="23"/>
+    <col min="8" max="8" width="14" customWidth="true" style="23"/>
+    <col min="9" max="9" width="13" customWidth="true" style="20"/>
+    <col min="10" max="10" width="13.85546875" customWidth="true" style="20"/>
+    <col min="11" max="11" width="23" customWidth="true" style="20"/>
+    <col min="12" max="12" width="9.140625" style="26"/>
+    <col min="13" max="13" width="9.140625" style="27"/>
+    <col min="14" max="14" width="9.140625" style="27"/>
+    <col min="15" max="15" width="9.140625" style="28"/>
+    <col min="16" max="16" width="9.140625" style="28"/>
+    <col min="17" max="17" width="9.140625" style="28"/>
+    <col min="18" max="18" width="9.140625" style="28"/>
+    <col min="19" max="19" width="11.42578125" customWidth="true" style="21"/>
+    <col min="20" max="20" width="9.140625" style="21"/>
+    <col min="21" max="21" width="9.140625" style="21"/>
+    <col min="22" max="22" width="9.140625" style="21"/>
+    <col min="23" max="23" width="9.140625" style="21"/>
+    <col min="24" max="24" width="13.5703125" customWidth="true" style="21"/>
+    <col min="25" max="25" width="15.42578125" customWidth="true" style="21"/>
+    <col min="26" max="26" width="9.140625" style="21"/>
+    <col min="27" max="27" width="15" customWidth="true" style="21"/>
+    <col min="28" max="28" width="19.7109375" customWidth="true" style="21"/>
+    <col min="29" max="29" width="17.28515625" customWidth="true" style="21"/>
+    <col min="30" max="30" width="15.42578125" customWidth="true" style="21"/>
+    <col min="31" max="31" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" customHeight="1" ht="30">
+    <row r="1" spans="1:31" customHeight="1" ht="30">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1"/>
     </row>
-    <row r="2" spans="1:27" customHeight="1" ht="73.5">
+    <row r="2" spans="1:31" customHeight="1" ht="20.25">
       <c r="A2"/>
       <c r="B2"/>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2"/>
     </row>
-    <row r="3" spans="1:27" customHeight="1" ht="14.25">
+    <row r="3" spans="1:31" customHeight="1" ht="27">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
       <c r="S3"/>
       <c r="T3"/>
       <c r="U3"/>
@@ -1213,92 +1247,104 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
     </row>
-    <row r="4" spans="1:27" customHeight="1" ht="27">
+    <row r="4" spans="1:31" customHeight="1" ht="27.75">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
     </row>
-    <row r="5" spans="1:27" customHeight="1" ht="27">
+    <row r="5" spans="1:31" customHeight="1" ht="27">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="19" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
     </row>
-    <row r="6" spans="1:27" customHeight="1" ht="27">
+    <row r="6" spans="1:31" customHeight="1" ht="27">
       <c r="A6"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="51" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="19"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="9"/>
       <c r="S6"/>
       <c r="T6"/>
       <c r="U6"/>
@@ -1308,28 +1354,32 @@
       <c r="Y6"/>
       <c r="Z6"/>
       <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
     </row>
-    <row r="7" spans="1:27" customHeight="1" ht="27">
+    <row r="7" spans="1:31" customHeight="1" ht="27">
       <c r="A7"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7"/>
       <c r="T7"/>
       <c r="U7"/>
@@ -1339,30 +1389,34 @@
       <c r="Y7"/>
       <c r="Z7"/>
       <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
     </row>
-    <row r="8" spans="1:27" customHeight="1" ht="27">
+    <row r="8" spans="1:31" customHeight="1" ht="27">
       <c r="A8"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="13"/>
       <c r="E8"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="16" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -1372,57 +1426,65 @@
       <c r="Y8"/>
       <c r="Z8"/>
       <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
     </row>
-    <row r="9" spans="1:27" customHeight="1" ht="27.75" s="10" customFormat="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:31" customHeight="1" ht="27">
+      <c r="A9" s="24"/>
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="24"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
     </row>
-    <row r="10" spans="1:27" customHeight="1" ht="18.75">
+    <row r="10" spans="1:31" customHeight="1" ht="27">
       <c r="A10"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="21"/>
       <c r="C10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
@@ -1432,142 +1494,198 @@
       <c r="Y10"/>
       <c r="Z10"/>
       <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
     </row>
-    <row r="11" spans="1:27" customHeight="1" ht="54.75" s="9" customFormat="1">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:31" customHeight="1" ht="43.5">
+      <c r="A11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
+      <c r="T11" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC11" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE11"/>
     </row>
-    <row r="12" spans="1:27" customHeight="1" ht="39.75" s="8" customFormat="1">
-      <c r="A12" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="35" t="s">
+    <row r="12" spans="1:31" customHeight="1" ht="27.75">
+      <c r="A12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="B12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="D12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="E12" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="35" t="s">
+      <c r="F12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="35" t="s">
+      <c r="G12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="H12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
+      <c r="I12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="X12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA12" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE12"/>
     </row>
-    <row r="13" spans="1:27" customHeight="1" ht="35.65">
+    <row r="13" spans="1:31" customHeight="1" ht="27.75">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1595,163 +1713,187 @@
       <c r="Y13"/>
       <c r="Z13"/>
       <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
     </row>
-    <row r="14" spans="1:27" customHeight="1" ht="50.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
+    <row r="14" spans="1:31" customHeight="1" ht="48">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14"/>
     </row>
-    <row r="15" spans="1:27" customHeight="1" ht="153">
+    <row r="15" spans="1:31" customHeight="1" ht="142.5">
       <c r="A15"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="42"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15"/>
     </row>
-    <row r="16" spans="1:27" customHeight="1" ht="33.75">
+    <row r="16" spans="1:31" customHeight="1" ht="28.5">
       <c r="A16"/>
-      <c r="B16" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="43" t="s">
-        <v>52</v>
+      <c r="B16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="O16" s="44"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16"/>
     </row>
-    <row r="17" spans="1:27" customHeight="1" ht="33.75">
+    <row r="17" spans="1:31" customHeight="1" ht="27.75">
       <c r="A17"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17"/>
     </row>
-    <row r="18" spans="1:27" customHeight="1" ht="149.65">
+    <row r="18" spans="1:31" customHeight="1" ht="142.5">
       <c r="A18"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18"/>
     </row>
-    <row r="19" spans="1:27" customHeight="1" ht="33.75">
+    <row r="19" spans="1:31" customHeight="1" ht="27.75">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1779,114 +1921,32 @@
       <c r="Y19"/>
       <c r="Z19"/>
       <c r="AA19"/>
-    </row>
-    <row r="20" spans="1:27" customHeight="1" ht="33.75">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-    </row>
-    <row r="21" spans="1:27" customHeight="1" ht="33.75">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-    </row>
-    <row r="22" spans="1:27" customHeight="1" ht="33.75">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="POKeWrx/08XUOLwZmoB88Gm8Mtj3m8I1P0+BSE3fbNMfqUqTyClNXMMfQXKuT3jiFRNg6QHK4oKKT4iZxJ+TiA==" saltValue="I99BwC9arcGttwQ+6t122A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells>
+    <mergeCell ref="C1:AD1"/>
+    <mergeCell ref="C2:AD2"/>
+    <mergeCell ref="I4:U4"/>
+    <mergeCell ref="I5:U5"/>
+    <mergeCell ref="N14:AD14"/>
+    <mergeCell ref="N15:AD15"/>
+    <mergeCell ref="N16:AD16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M18"/>
+    <mergeCell ref="N17:AD18"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C1:S1"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="G14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S18"/>
-    <mergeCell ref="B17:M18"/>
-    <mergeCell ref="B16:M16"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="33" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="31" fitToHeight="0" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
